--- a/data/IN/outputs/house_republicans_chamber_votes.xlsx
+++ b/data/IN/outputs/house_republicans_chamber_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="BJ1" sqref="BJ1:BR70"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_republicans_chamber_votes.xlsx
+++ b/data/IN/outputs/house_republicans_chamber_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BJ1" sqref="BJ1:BR70"/>
     </sheetView>
   </sheetViews>
